--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1123575.999830606</v>
+        <v>1178610.168872387</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10758801.54646443</v>
+        <v>10758801.54646444</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13011451.3625953</v>
+        <v>13011451.36259529</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.12823741901176</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.728290874919793</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S11" t="n">
         <v>156.0053783754247</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>46.12823741901159</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100.9958732324629</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>222.6571589824344</v>
       </c>
       <c r="V12" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>222.6571589824344</v>
       </c>
       <c r="X12" t="n">
-        <v>196.1164256317282</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.57346213723697</v>
+        <v>82.57346213723693</v>
       </c>
       <c r="W13" t="n">
         <v>222.6571589824344</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="C14" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>36.38275638138364</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>222.6571589824343</v>
+        <v>196.116425631728</v>
       </c>
       <c r="G14" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>34.55449641346264</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U15" t="n">
-        <v>70.70233575456069</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.74615852550002</v>
+        <v>196.116425631728</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W16" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X16" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.3881347568085</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.728290874919793</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>36.38275638138364</v>
       </c>
       <c r="U17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.40792664341242</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V18" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W18" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>17.85319636781886</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.947399967071</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.4051366241599</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>144.7029791957984</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X19" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>49.85652829393145</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.38275638138361</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>79.7201344879149</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I21" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>115.0748559360076</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>106.4051366241599</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>146.0909150933329</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="U22" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>215.4984668668601</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>187.7634822120939</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>188.9451477161679</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>131.9216826556127</v>
       </c>
       <c r="D25" t="n">
-        <v>23.31799145357252</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>94.71424522427263</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>6.315079796973493</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.9116779448064</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>120.7842216425874</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.728290874919821</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>127.85398929161</v>
+        <v>52.58379132639335</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>248.8950473907584</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.2267577417799</v>
       </c>
       <c r="U28" t="n">
-        <v>242.4121497435011</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="V28" t="n">
         <v>248.8950473907584</v>
@@ -2778,7 +2778,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.9116779448064</v>
+      </c>
+      <c r="U29" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
+        <v>6.3150797969735</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.728290874919821</v>
-      </c>
-      <c r="S29" t="n">
-        <v>156.0053783754247</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>59.49308849143547</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.71133468091505</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>52.58379132639335</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>21.8894080144493</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.1990096166135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.586788922053707</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>248.8950473907584</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.586788922053707</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>122.2580365686688</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>41.43424513224093</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.38458651602757</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>102.0712138819787</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>46.12823741901142</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="E35" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S35" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>192.3881347568081</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.52744161009417</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>9.674783000390631</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>37.18425469186666</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.7878444897218</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>222.6571589824342</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>222.6571589824342</v>
+        <v>71.60391311422069</v>
       </c>
       <c r="F38" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H38" t="n">
-        <v>192.3881347568083</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.90185944948263</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>24.68198845480815</v>
       </c>
       <c r="U39" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W39" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>98.87738163762583</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6571589824342</v>
+        <v>197.4673441174427</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="G41" t="n">
-        <v>46.12823741901136</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>156.0053783754247</v>
@@ -3796,7 +3796,7 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>49.8565282939311</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>76.27177149968145</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H42" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>187.5542922536948</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.736469297819</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.666345091993255</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.11104725630337</v>
       </c>
       <c r="D44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T44" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>202.1336157944361</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>222.6571589824343</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
     </row>
     <row r="45">
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V45" t="n">
-        <v>81.41308208437322</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W45" t="n">
         <v>222.6571589824343</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>196.116425631728</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.9837961276615</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>166.1126437003505</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>514.2191943184741</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="C11" t="n">
-        <v>289.3129731240959</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="D11" t="n">
-        <v>242.718793912973</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="E11" t="n">
-        <v>242.718793912973</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="F11" t="n">
-        <v>242.718793912973</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="G11" t="n">
         <v>17.81257271859475</v>
@@ -5041,52 +5041,52 @@
         <v>17.81257271859475</v>
       </c>
       <c r="J11" t="n">
-        <v>34.05974234075613</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K11" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061088</v>
       </c>
       <c r="L11" t="n">
-        <v>239.2046314711339</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M11" t="n">
-        <v>415.5865117704857</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734925</v>
+        <v>599.4362436734929</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974407</v>
+        <v>759.7050708974409</v>
       </c>
       <c r="P11" t="n">
-        <v>861.9898061237603</v>
+        <v>861.9898061237602</v>
       </c>
       <c r="Q11" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="R11" t="n">
-        <v>886.8626855510307</v>
+        <v>886.8626855510306</v>
       </c>
       <c r="S11" t="n">
-        <v>729.281495272824</v>
+        <v>729.2814952728238</v>
       </c>
       <c r="T11" t="n">
-        <v>514.2191943184741</v>
+        <v>514.2191943184739</v>
       </c>
       <c r="U11" t="n">
-        <v>514.2191943184741</v>
+        <v>514.2191943184739</v>
       </c>
       <c r="V11" t="n">
-        <v>514.2191943184741</v>
+        <v>514.2191943184739</v>
       </c>
       <c r="W11" t="n">
-        <v>514.2191943184741</v>
+        <v>514.2191943184739</v>
       </c>
       <c r="X11" t="n">
-        <v>514.2191943184741</v>
+        <v>289.3129731240957</v>
       </c>
       <c r="Y11" t="n">
-        <v>514.2191943184741</v>
+        <v>242.7187939129729</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.81257271859475</v>
+        <v>440.8161935409811</v>
       </c>
       <c r="C12" t="n">
-        <v>17.81257271859475</v>
+        <v>266.3631642598541</v>
       </c>
       <c r="D12" t="n">
-        <v>17.81257271859475</v>
+        <v>266.3631642598541</v>
       </c>
       <c r="E12" t="n">
-        <v>17.81257271859475</v>
+        <v>266.3631642598541</v>
       </c>
       <c r="F12" t="n">
-        <v>17.81257271859475</v>
+        <v>119.8286062867391</v>
       </c>
       <c r="G12" t="n">
         <v>17.81257271859475</v>
@@ -5120,52 +5120,52 @@
         <v>17.81257271859475</v>
       </c>
       <c r="J12" t="n">
-        <v>17.81257271859475</v>
+        <v>62.24029840864318</v>
       </c>
       <c r="K12" t="n">
-        <v>80.34372630892095</v>
+        <v>124.7714519989693</v>
       </c>
       <c r="L12" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799675</v>
       </c>
       <c r="M12" t="n">
-        <v>426.706324197326</v>
+        <v>426.7063241973261</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1863751510023</v>
+        <v>617.1863751510024</v>
       </c>
       <c r="O12" t="n">
         <v>769.2186132763807</v>
       </c>
       <c r="P12" t="n">
-        <v>871.9048215275947</v>
+        <v>871.9048215275945</v>
       </c>
       <c r="Q12" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="S12" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="T12" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="U12" t="n">
-        <v>665.7224147353594</v>
+        <v>665.7224147353593</v>
       </c>
       <c r="V12" t="n">
-        <v>440.8161935409812</v>
+        <v>665.7224147353593</v>
       </c>
       <c r="W12" t="n">
-        <v>215.909972346603</v>
+        <v>440.8161935409811</v>
       </c>
       <c r="X12" t="n">
-        <v>17.81257271859475</v>
+        <v>440.8161935409811</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.81257271859475</v>
+        <v>440.8161935409811</v>
       </c>
     </row>
     <row r="13">
@@ -5205,37 +5205,37 @@
         <v>17.81257271859475</v>
       </c>
       <c r="L13" t="n">
-        <v>198.7269740270978</v>
+        <v>195.0714213037284</v>
       </c>
       <c r="M13" t="n">
-        <v>399.8649672306029</v>
+        <v>396.2094145072335</v>
       </c>
       <c r="N13" t="n">
-        <v>601.6549649431017</v>
+        <v>597.9994122197323</v>
       </c>
       <c r="O13" t="n">
-        <v>772.0243929736647</v>
+        <v>768.3688402502953</v>
       </c>
       <c r="P13" t="n">
-        <v>889.4173707822661</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="Q13" t="n">
-        <v>890.6286359297376</v>
+        <v>890.6286359297375</v>
       </c>
       <c r="R13" t="n">
-        <v>758.9414974385982</v>
+        <v>758.941497438598</v>
       </c>
       <c r="S13" t="n">
-        <v>551.0325526197117</v>
+        <v>551.0325526197116</v>
       </c>
       <c r="T13" t="n">
-        <v>326.1263314253335</v>
+        <v>326.1263314253334</v>
       </c>
       <c r="U13" t="n">
-        <v>326.1263314253335</v>
+        <v>326.1263314253334</v>
       </c>
       <c r="V13" t="n">
-        <v>242.718793912973</v>
+        <v>242.7187939129729</v>
       </c>
       <c r="W13" t="n">
         <v>17.81257271859475</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729.2814952728236</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="C14" t="n">
-        <v>504.3752740784455</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="D14" t="n">
-        <v>504.3752740784455</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="E14" t="n">
-        <v>467.6250151073509</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="F14" t="n">
         <v>242.7187939129728</v>
@@ -5278,52 +5278,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J14" t="n">
-        <v>34.05974234075575</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K14" t="n">
-        <v>109.1485562061084</v>
+        <v>109.1485562061088</v>
       </c>
       <c r="L14" t="n">
-        <v>239.2046314711339</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M14" t="n">
-        <v>415.5865117704857</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N14" t="n">
-        <v>599.4362436734926</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O14" t="n">
-        <v>759.7050708974409</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P14" t="n">
-        <v>861.9898061237599</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q14" t="n">
-        <v>890.6286359297371</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R14" t="n">
-        <v>886.8626855510303</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="V14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="W14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="X14" t="n">
-        <v>729.2814952728236</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Y14" t="n">
-        <v>729.2814952728236</v>
+        <v>665.7224147353588</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.9900546742776</v>
+        <v>485.6585467920163</v>
       </c>
       <c r="C15" t="n">
-        <v>598.9900546742776</v>
+        <v>485.6585467920163</v>
       </c>
       <c r="D15" t="n">
-        <v>450.0556450130264</v>
+        <v>336.724137130765</v>
       </c>
       <c r="E15" t="n">
-        <v>450.0556450130264</v>
+        <v>301.8206053999947</v>
       </c>
       <c r="F15" t="n">
-        <v>303.5210870399113</v>
+        <v>155.2860474268797</v>
       </c>
       <c r="G15" t="n">
-        <v>166.0476123316264</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H15" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I15" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J15" t="n">
-        <v>17.81257271859474</v>
+        <v>62.24029840864262</v>
       </c>
       <c r="K15" t="n">
-        <v>80.34372630892094</v>
+        <v>124.7714519989688</v>
       </c>
       <c r="L15" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799669</v>
       </c>
       <c r="M15" t="n">
-        <v>382.2785985072778</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N15" t="n">
-        <v>572.7586494609541</v>
+        <v>617.1863751510018</v>
       </c>
       <c r="O15" t="n">
-        <v>724.7908875863325</v>
+        <v>769.2186132763801</v>
       </c>
       <c r="P15" t="n">
-        <v>827.4770958375465</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q15" t="n">
-        <v>890.6286359297371</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R15" t="n">
-        <v>867.5251443686479</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S15" t="n">
-        <v>867.5251443686479</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T15" t="n">
-        <v>670.4065554364602</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="U15" t="n">
-        <v>598.9900546742776</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="V15" t="n">
-        <v>598.9900546742776</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="W15" t="n">
-        <v>598.9900546742776</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="X15" t="n">
-        <v>598.9900546742776</v>
+        <v>485.6585467920163</v>
       </c>
       <c r="Y15" t="n">
-        <v>598.9900546742776</v>
+        <v>485.6585467920163</v>
       </c>
     </row>
     <row r="16">
@@ -5439,43 +5439,43 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K16" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L16" t="n">
-        <v>296.712678716887</v>
+        <v>195.0714213037278</v>
       </c>
       <c r="M16" t="n">
-        <v>497.8506719203922</v>
+        <v>396.209414507233</v>
       </c>
       <c r="N16" t="n">
-        <v>597.999412219732</v>
+        <v>597.9994122197318</v>
       </c>
       <c r="O16" t="n">
-        <v>768.368840250295</v>
+        <v>768.3688402502947</v>
       </c>
       <c r="P16" t="n">
-        <v>890.6286359297371</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q16" t="n">
-        <v>890.6286359297371</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R16" t="n">
-        <v>758.9414974385977</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S16" t="n">
-        <v>692.531236301729</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="T16" t="n">
-        <v>692.531236301729</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U16" t="n">
-        <v>467.6250151073509</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V16" t="n">
-        <v>467.6250151073509</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="W16" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="X16" t="n">
         <v>17.81257271859474</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.718793912973</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="C17" t="n">
-        <v>242.718793912973</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D17" t="n">
-        <v>242.718793912973</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E17" t="n">
-        <v>242.718793912973</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F17" t="n">
-        <v>242.718793912973</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J17" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075606</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L17" t="n">
-        <v>239.2046314711343</v>
+        <v>239.204631471134</v>
       </c>
       <c r="M17" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N17" t="n">
-        <v>599.4362436734929</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974411</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R17" t="n">
-        <v>886.8626855510309</v>
+        <v>886.86268555103</v>
       </c>
       <c r="S17" t="n">
-        <v>886.8626855510309</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="T17" t="n">
-        <v>886.8626855510309</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U17" t="n">
-        <v>661.9564643566528</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="V17" t="n">
-        <v>661.9564643566528</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="W17" t="n">
-        <v>661.9564643566528</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X17" t="n">
-        <v>661.9564643566528</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="Y17" t="n">
-        <v>437.0502431622745</v>
+        <v>242.7187939129728</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H18" t="n">
-        <v>41.456943065476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I18" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J18" t="n">
-        <v>62.24029840864313</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K18" t="n">
-        <v>124.7714519989693</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L18" t="n">
-        <v>255.1748459799676</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M18" t="n">
-        <v>426.7063241973262</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N18" t="n">
-        <v>617.1863751510025</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O18" t="n">
-        <v>769.2186132763809</v>
+        <v>769.2186132763801</v>
       </c>
       <c r="P18" t="n">
-        <v>871.9048215275949</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T18" t="n">
-        <v>890.6286359297378</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="U18" t="n">
-        <v>665.7224147353595</v>
+        <v>468.6038258031711</v>
       </c>
       <c r="V18" t="n">
-        <v>440.8161935409813</v>
+        <v>243.6976046087931</v>
       </c>
       <c r="W18" t="n">
-        <v>215.909972346603</v>
+        <v>243.6976046087931</v>
       </c>
       <c r="X18" t="n">
-        <v>215.909972346603</v>
+        <v>35.84610440326026</v>
       </c>
       <c r="Y18" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.222185963679</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="C19" t="n">
-        <v>206.222185963679</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="D19" t="n">
-        <v>206.222185963679</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="E19" t="n">
-        <v>206.222185963679</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="F19" t="n">
-        <v>206.222185963679</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="G19" t="n">
-        <v>37.58844862320322</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H19" t="n">
-        <v>37.58844862320322</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I19" t="n">
-        <v>37.58844862320322</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K19" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L19" t="n">
-        <v>296.712678716887</v>
+        <v>193.8601561562563</v>
       </c>
       <c r="M19" t="n">
-        <v>396.2094145072339</v>
+        <v>394.9981493597614</v>
       </c>
       <c r="N19" t="n">
-        <v>597.9994122197327</v>
+        <v>596.7881470722602</v>
       </c>
       <c r="O19" t="n">
-        <v>768.3688402502956</v>
+        <v>767.1575751028232</v>
       </c>
       <c r="P19" t="n">
-        <v>890.6286359297378</v>
+        <v>889.4173707822654</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R19" t="n">
-        <v>758.9414974385984</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S19" t="n">
-        <v>758.9414974385984</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T19" t="n">
-        <v>758.9414974385984</v>
+        <v>783.148699945737</v>
       </c>
       <c r="U19" t="n">
-        <v>758.9414974385984</v>
+        <v>558.2424787513589</v>
       </c>
       <c r="V19" t="n">
-        <v>758.9414974385984</v>
+        <v>558.2424787513589</v>
       </c>
       <c r="W19" t="n">
-        <v>612.776871988297</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="X19" t="n">
-        <v>387.8706507939187</v>
+        <v>333.3362575569809</v>
       </c>
       <c r="Y19" t="n">
-        <v>387.8706507939187</v>
+        <v>333.3362575569809</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>504.3752740784453</v>
+        <v>68.1727023084245</v>
       </c>
       <c r="C20" t="n">
-        <v>504.3752740784453</v>
+        <v>68.1727023084245</v>
       </c>
       <c r="D20" t="n">
-        <v>504.3752740784453</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E20" t="n">
-        <v>504.3752740784453</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F20" t="n">
-        <v>279.4690528840673</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G20" t="n">
-        <v>54.56283168968929</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H20" t="n">
-        <v>54.56283168968929</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I20" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05974234075606</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K20" t="n">
-        <v>109.1485562061087</v>
+        <v>109.148556206109</v>
       </c>
       <c r="L20" t="n">
-        <v>239.204631471134</v>
+        <v>239.2046314711344</v>
       </c>
       <c r="M20" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704864</v>
       </c>
       <c r="N20" t="n">
-        <v>599.4362436734923</v>
+        <v>599.436243673493</v>
       </c>
       <c r="O20" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974411</v>
       </c>
       <c r="P20" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237603</v>
       </c>
       <c r="Q20" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R20" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S20" t="n">
-        <v>729.2814952728233</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="T20" t="n">
-        <v>729.2814952728233</v>
+        <v>517.9851446971809</v>
       </c>
       <c r="U20" t="n">
-        <v>729.2814952728233</v>
+        <v>517.9851446971809</v>
       </c>
       <c r="V20" t="n">
-        <v>504.3752740784453</v>
+        <v>517.9851446971809</v>
       </c>
       <c r="W20" t="n">
-        <v>504.3752740784453</v>
+        <v>517.9851446971809</v>
       </c>
       <c r="X20" t="n">
-        <v>504.3752740784453</v>
+        <v>293.0789235028027</v>
       </c>
       <c r="Y20" t="n">
-        <v>504.3752740784453</v>
+        <v>293.0789235028027</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>440.8161935409808</v>
+        <v>427.2102121819447</v>
       </c>
       <c r="C21" t="n">
-        <v>440.8161935409808</v>
+        <v>427.2102121819447</v>
       </c>
       <c r="D21" t="n">
-        <v>291.8817838797295</v>
+        <v>278.2758025206934</v>
       </c>
       <c r="E21" t="n">
-        <v>291.8817838797295</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="F21" t="n">
-        <v>145.3472259066145</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="G21" t="n">
-        <v>64.82183753498329</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H21" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I21" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J21" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K21" t="n">
-        <v>80.34372630892088</v>
+        <v>80.34372630892089</v>
       </c>
       <c r="L21" t="n">
         <v>210.7471202899191</v>
@@ -5852,31 +5852,31 @@
         <v>827.4770958375461</v>
       </c>
       <c r="Q21" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R21" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S21" t="n">
-        <v>890.6286359297369</v>
+        <v>740.5660293323219</v>
       </c>
       <c r="T21" t="n">
-        <v>890.6286359297369</v>
+        <v>543.4474404001342</v>
       </c>
       <c r="U21" t="n">
-        <v>890.6286359297369</v>
+        <v>543.4474404001342</v>
       </c>
       <c r="V21" t="n">
-        <v>665.7224147353588</v>
+        <v>543.4474404001342</v>
       </c>
       <c r="W21" t="n">
-        <v>440.8161935409808</v>
+        <v>543.4474404001342</v>
       </c>
       <c r="X21" t="n">
-        <v>440.8161935409808</v>
+        <v>427.2102121819447</v>
       </c>
       <c r="Y21" t="n">
-        <v>440.8161935409808</v>
+        <v>427.2102121819447</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.8161935409808</v>
+        <v>293.2496126386247</v>
       </c>
       <c r="C22" t="n">
-        <v>440.8161935409808</v>
+        <v>293.2496126386247</v>
       </c>
       <c r="D22" t="n">
-        <v>440.8161935409808</v>
+        <v>143.132973226289</v>
       </c>
       <c r="E22" t="n">
-        <v>333.3362575569809</v>
+        <v>143.132973226289</v>
       </c>
       <c r="F22" t="n">
-        <v>186.4463100590706</v>
+        <v>143.132973226289</v>
       </c>
       <c r="G22" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="H22" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L22" t="n">
-        <v>198.7269740270977</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M22" t="n">
         <v>399.8649672306029</v>
@@ -5928,34 +5928,34 @@
         <v>772.0243929736647</v>
       </c>
       <c r="P22" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822661</v>
       </c>
       <c r="Q22" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R22" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S22" t="n">
-        <v>890.6286359297369</v>
+        <v>743.0620550273811</v>
       </c>
       <c r="T22" t="n">
-        <v>665.7224147353588</v>
+        <v>518.1558338330029</v>
       </c>
       <c r="U22" t="n">
-        <v>440.8161935409808</v>
+        <v>518.1558338330029</v>
       </c>
       <c r="V22" t="n">
-        <v>440.8161935409808</v>
+        <v>518.1558338330029</v>
       </c>
       <c r="W22" t="n">
-        <v>440.8161935409808</v>
+        <v>293.2496126386247</v>
       </c>
       <c r="X22" t="n">
-        <v>440.8161935409808</v>
+        <v>293.2496126386247</v>
       </c>
       <c r="Y22" t="n">
-        <v>440.8161935409808</v>
+        <v>293.2496126386247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>740.4051004057827</v>
+      </c>
+      <c r="C23" t="n">
+        <v>740.4051004057827</v>
+      </c>
+      <c r="D23" t="n">
+        <v>740.4051004057827</v>
+      </c>
+      <c r="E23" t="n">
+        <v>740.4051004057827</v>
+      </c>
+      <c r="F23" t="n">
         <v>488.9959616272389</v>
-      </c>
-      <c r="C23" t="n">
-        <v>488.9959616272389</v>
-      </c>
-      <c r="D23" t="n">
-        <v>237.5868228486951</v>
-      </c>
-      <c r="E23" t="n">
-        <v>237.5868228486951</v>
-      </c>
-      <c r="F23" t="n">
-        <v>237.5868228486951</v>
       </c>
       <c r="G23" t="n">
         <v>237.5868228486951</v>
@@ -5989,19 +5989,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J23" t="n">
-        <v>68.98707935655311</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K23" t="n">
-        <v>144.0758932219058</v>
+        <v>111.2475872787747</v>
       </c>
       <c r="L23" t="n">
-        <v>274.1319684869312</v>
+        <v>241.3036625438001</v>
       </c>
       <c r="M23" t="n">
-        <v>520.538065403782</v>
+        <v>487.7097594606508</v>
       </c>
       <c r="N23" t="n">
-        <v>704.3877973067888</v>
+        <v>671.5594913636576</v>
       </c>
       <c r="O23" t="n">
         <v>864.6566245307368</v>
@@ -6031,7 +6031,7 @@
         <v>991.8142391843265</v>
       </c>
       <c r="X23" t="n">
-        <v>740.4051004057827</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y23" t="n">
         <v>740.4051004057827</v>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>390.3083075500275</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="C24" t="n">
-        <v>215.8552782689005</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="D24" t="n">
         <v>66.92086860764923</v>
@@ -6071,10 +6071,10 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K24" t="n">
-        <v>82.4427573815868</v>
+        <v>229.7230056322652</v>
       </c>
       <c r="L24" t="n">
-        <v>328.8488542984376</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M24" t="n">
         <v>531.6578778306221</v>
@@ -6092,28 +6092,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R24" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="S24" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="T24" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="U24" t="n">
-        <v>995.5801895630334</v>
+        <v>744.3358001797214</v>
       </c>
       <c r="V24" t="n">
-        <v>995.5801895630334</v>
+        <v>509.1836919479787</v>
       </c>
       <c r="W24" t="n">
-        <v>805.9201065205143</v>
+        <v>257.774553169435</v>
       </c>
       <c r="X24" t="n">
-        <v>598.0686063149815</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="Y24" t="n">
-        <v>390.3083075500275</v>
+        <v>66.92086860764923</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7619120059458</v>
+        <v>153.1658286959199</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7619120059458</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2083852851654</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E25" t="n">
-        <v>321.2952917027723</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F25" t="n">
-        <v>174.405344204862</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G25" t="n">
-        <v>174.405344204862</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H25" t="n">
         <v>19.91160379126067</v>
@@ -6171,28 +6171,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R25" t="n">
-        <v>995.5801895630334</v>
+        <v>863.893051071894</v>
       </c>
       <c r="S25" t="n">
-        <v>995.5801895630334</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="T25" t="n">
-        <v>995.5801895630334</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="U25" t="n">
-        <v>744.1710507844896</v>
+        <v>404.5749674744637</v>
       </c>
       <c r="V25" t="n">
-        <v>492.7619120059458</v>
+        <v>153.1658286959199</v>
       </c>
       <c r="W25" t="n">
-        <v>492.7619120059458</v>
+        <v>153.1658286959199</v>
       </c>
       <c r="X25" t="n">
-        <v>492.7619120059458</v>
+        <v>153.1658286959199</v>
       </c>
       <c r="Y25" t="n">
-        <v>492.7619120059458</v>
+        <v>153.1658286959199</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>644.7341456337901</v>
+        <v>529.1087498301397</v>
       </c>
       <c r="C26" t="n">
-        <v>393.3250068552463</v>
+        <v>529.1087498301397</v>
       </c>
       <c r="D26" t="n">
-        <v>393.3250068552463</v>
+        <v>277.6996110515959</v>
       </c>
       <c r="E26" t="n">
-        <v>393.3250068552463</v>
+        <v>26.29047227305207</v>
       </c>
       <c r="F26" t="n">
-        <v>393.3250068552463</v>
+        <v>26.29047227305207</v>
       </c>
       <c r="G26" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H26" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I26" t="n">
         <v>19.91160379126067</v>
@@ -6244,34 +6244,34 @@
         <v>761.8041019701067</v>
       </c>
       <c r="P26" t="n">
-        <v>864.088837196426</v>
+        <v>966.9413597570561</v>
       </c>
       <c r="Q26" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R26" t="n">
-        <v>991.8142391843265</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S26" t="n">
-        <v>991.8142391843265</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T26" t="n">
-        <v>991.8142391843265</v>
+        <v>780.5178886086835</v>
       </c>
       <c r="U26" t="n">
-        <v>991.8142391843265</v>
+        <v>780.5178886086835</v>
       </c>
       <c r="V26" t="n">
-        <v>740.4051004057827</v>
+        <v>780.5178886086835</v>
       </c>
       <c r="W26" t="n">
-        <v>740.4051004057827</v>
+        <v>780.5178886086835</v>
       </c>
       <c r="X26" t="n">
-        <v>740.4051004057827</v>
+        <v>529.1087498301397</v>
       </c>
       <c r="Y26" t="n">
-        <v>740.4051004057827</v>
+        <v>529.1087498301397</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>345.0007219977995</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="C27" t="n">
-        <v>345.0007219977995</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="D27" t="n">
-        <v>196.0663123365483</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="E27" t="n">
-        <v>66.92086860764923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F27" t="n">
-        <v>66.92086860764923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G27" t="n">
-        <v>66.92086860764923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H27" t="n">
-        <v>66.92086860764923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I27" t="n">
         <v>19.91160379126067</v>
@@ -6308,49 +6308,49 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K27" t="n">
-        <v>229.7230056322652</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L27" t="n">
-        <v>360.1263996132634</v>
+        <v>212.846151362585</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6578778306221</v>
+        <v>384.3776295799436</v>
       </c>
       <c r="N27" t="n">
-        <v>722.1379287842983</v>
+        <v>574.8576805336198</v>
       </c>
       <c r="O27" t="n">
-        <v>874.1701669096766</v>
+        <v>726.8899186589981</v>
       </c>
       <c r="P27" t="n">
-        <v>976.8563751608905</v>
+        <v>829.576126910212</v>
       </c>
       <c r="Q27" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R27" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S27" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T27" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U27" t="n">
-        <v>972.4766980019442</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V27" t="n">
-        <v>972.4766980019442</v>
+        <v>532.287183509068</v>
       </c>
       <c r="W27" t="n">
-        <v>721.0675592234004</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="X27" t="n">
-        <v>513.2160590178676</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="Y27" t="n">
-        <v>513.2160590178676</v>
+        <v>73.02654452499132</v>
       </c>
     </row>
     <row r="28">
@@ -6387,10 +6387,10 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K28" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L28" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M28" t="n">
         <v>499.9497029930579</v>
@@ -6414,16 +6414,16 @@
         <v>995.5801895630334</v>
       </c>
       <c r="T28" t="n">
-        <v>995.5801895630334</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="U28" t="n">
-        <v>750.7194322463656</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="V28" t="n">
-        <v>499.3102934678218</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="W28" t="n">
-        <v>247.901154689278</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="X28" t="n">
         <v>19.91160379126067</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.7298813483483</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="C29" t="n">
-        <v>522.7298813483483</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="D29" t="n">
-        <v>522.7298813483483</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E29" t="n">
-        <v>271.3207425698045</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F29" t="n">
-        <v>271.3207425698045</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G29" t="n">
         <v>19.91160379126067</v>
@@ -6487,28 +6487,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R29" t="n">
-        <v>991.8142391843265</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S29" t="n">
-        <v>834.2330489061198</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T29" t="n">
-        <v>834.2330489061198</v>
+        <v>780.5178886086835</v>
       </c>
       <c r="U29" t="n">
-        <v>774.1390201268921</v>
+        <v>529.1087498301397</v>
       </c>
       <c r="V29" t="n">
-        <v>774.1390201268921</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="W29" t="n">
-        <v>774.1390201268921</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="X29" t="n">
         <v>522.7298813483483</v>
       </c>
       <c r="Y29" t="n">
-        <v>522.7298813483483</v>
+        <v>271.3207425698045</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.92305296390214</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="C30" t="n">
-        <v>19.91160379126067</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="D30" t="n">
-        <v>19.91160379126067</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="E30" t="n">
         <v>19.91160379126067</v>
@@ -6566,28 +6566,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U30" t="n">
-        <v>744.3358001797214</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V30" t="n">
-        <v>509.1836919479787</v>
+        <v>532.287183509068</v>
       </c>
       <c r="W30" t="n">
-        <v>257.774553169435</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="X30" t="n">
-        <v>49.92305296390214</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.92305296390214</v>
+        <v>73.02654452499132</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>486.8775197138964</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="C31" t="n">
-        <v>317.9413367859895</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="D31" t="n">
-        <v>167.8246973736538</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="E31" t="n">
-        <v>19.91160379126067</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91160379126067</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91160379126067</v>
+        <v>174.405344204862</v>
       </c>
       <c r="H31" t="n">
         <v>19.91160379126067</v>
@@ -6624,49 +6624,49 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L31" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M31" t="n">
-        <v>499.9497029930581</v>
+        <v>499.9497029930579</v>
       </c>
       <c r="N31" t="n">
-        <v>701.7397007055569</v>
+        <v>701.7397007055567</v>
       </c>
       <c r="O31" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361197</v>
       </c>
       <c r="P31" t="n">
-        <v>994.368924415562</v>
+        <v>994.3689244155619</v>
       </c>
       <c r="Q31" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="R31" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S31" t="n">
-        <v>995.5801895630335</v>
+        <v>973.469676417125</v>
       </c>
       <c r="T31" t="n">
-        <v>995.5801895630335</v>
+        <v>973.469676417125</v>
       </c>
       <c r="U31" t="n">
-        <v>995.5801895630334</v>
+        <v>973.469676417125</v>
       </c>
       <c r="V31" t="n">
-        <v>995.5801895630334</v>
+        <v>973.469676417125</v>
       </c>
       <c r="W31" t="n">
-        <v>995.5801895630334</v>
+        <v>973.469676417125</v>
       </c>
       <c r="X31" t="n">
-        <v>889.3185636876663</v>
+        <v>745.4801255191077</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.5259845441361</v>
+        <v>524.6875463755775</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.3207425698045</v>
+        <v>525.3427994514328</v>
       </c>
       <c r="C32" t="n">
-        <v>271.3207425698045</v>
+        <v>525.3427994514328</v>
       </c>
       <c r="D32" t="n">
-        <v>271.3207425698045</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="E32" t="n">
-        <v>271.3207425698045</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="F32" t="n">
         <v>271.3207425698045</v>
@@ -6700,7 +6700,7 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J32" t="n">
-        <v>139.0112959740521</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K32" t="n">
         <v>214.1001098394048</v>
@@ -6739,13 +6739,13 @@
         <v>525.3427994514328</v>
       </c>
       <c r="W32" t="n">
-        <v>522.7298813483483</v>
+        <v>525.3427994514328</v>
       </c>
       <c r="X32" t="n">
-        <v>522.7298813483483</v>
+        <v>525.3427994514328</v>
       </c>
       <c r="Y32" t="n">
-        <v>522.7298813483483</v>
+        <v>525.3427994514328</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.5996726854194</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="C33" t="n">
-        <v>168.1466434042923</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="D33" t="n">
-        <v>168.1466434042923</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="E33" t="n">
-        <v>168.1466434042923</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="F33" t="n">
-        <v>168.1466434042923</v>
+        <v>157.3850784995456</v>
       </c>
       <c r="G33" t="n">
-        <v>168.1466434042923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H33" t="n">
-        <v>66.92086860764923</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I33" t="n">
         <v>19.91160379126067</v>
@@ -6782,19 +6782,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K33" t="n">
-        <v>82.4427573815868</v>
+        <v>229.7230056322652</v>
       </c>
       <c r="L33" t="n">
-        <v>212.846151362585</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M33" t="n">
-        <v>384.3776295799436</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N33" t="n">
-        <v>578.4180401186615</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O33" t="n">
-        <v>730.4502782440397</v>
+        <v>874.1701669096766</v>
       </c>
       <c r="P33" t="n">
         <v>976.8563751608905</v>
@@ -6812,19 +6812,19 @@
         <v>995.5801895630334</v>
       </c>
       <c r="U33" t="n">
-        <v>995.5801895630334</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V33" t="n">
-        <v>760.4280813312907</v>
+        <v>532.287183509068</v>
       </c>
       <c r="W33" t="n">
-        <v>718.5753084704413</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="X33" t="n">
-        <v>718.5753084704413</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="Y33" t="n">
-        <v>510.8150097054874</v>
+        <v>280.8780447305242</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
       <c r="C34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
       <c r="D34" t="n">
-        <v>483.34838221204</v>
+        <v>490.9521751277309</v>
       </c>
       <c r="E34" t="n">
-        <v>335.4352886296468</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="F34" t="n">
-        <v>188.5453411317365</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91160379126067</v>
+        <v>174.405344204862</v>
       </c>
       <c r="H34" t="n">
         <v>19.91160379126067</v>
@@ -6876,34 +6876,34 @@
         <v>872.1091287361198</v>
       </c>
       <c r="P34" t="n">
-        <v>994.3689244155619</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q34" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R34" t="n">
-        <v>942.6664658094702</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S34" t="n">
-        <v>734.7575209905838</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T34" t="n">
-        <v>734.7575209905838</v>
+        <v>892.4779533186105</v>
       </c>
       <c r="U34" t="n">
-        <v>734.7575209905838</v>
+        <v>892.4779533186105</v>
       </c>
       <c r="V34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
       <c r="W34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
       <c r="X34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
       <c r="Y34" t="n">
-        <v>483.34838221204</v>
+        <v>641.0688145400667</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129727</v>
       </c>
       <c r="C35" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129727</v>
       </c>
       <c r="D35" t="n">
-        <v>467.6250151073508</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E35" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F35" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G35" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I35" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075562</v>
+        <v>34.05974234075603</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061083</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711337</v>
+        <v>239.2046314711341</v>
       </c>
       <c r="M35" t="n">
-        <v>415.5865117704855</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N35" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974407</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237594</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R35" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="S35" t="n">
-        <v>729.2814952728233</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="T35" t="n">
-        <v>514.2191943184735</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="U35" t="n">
-        <v>514.2191943184735</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="V35" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073507</v>
       </c>
       <c r="W35" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073507</v>
       </c>
       <c r="X35" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073507</v>
       </c>
       <c r="Y35" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129727</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>487.7345696340881</v>
+        <v>243.697604608793</v>
       </c>
       <c r="C36" t="n">
-        <v>313.281540352961</v>
+        <v>243.697604608793</v>
       </c>
       <c r="D36" t="n">
-        <v>164.3471306917098</v>
+        <v>243.697604608793</v>
       </c>
       <c r="E36" t="n">
-        <v>164.3471306917098</v>
+        <v>243.697604608793</v>
       </c>
       <c r="F36" t="n">
-        <v>17.81257271859474</v>
+        <v>243.697604608793</v>
       </c>
       <c r="G36" t="n">
-        <v>17.81257271859474</v>
+        <v>106.224129900508</v>
       </c>
       <c r="H36" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I36" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J36" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K36" t="n">
         <v>80.34372630892088</v>
       </c>
       <c r="L36" t="n">
-        <v>255.1748459799669</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763801</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P36" t="n">
-        <v>871.904821527594</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R36" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S36" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="T36" t="n">
-        <v>890.6286359297369</v>
+        <v>693.5100469975489</v>
       </c>
       <c r="U36" t="n">
-        <v>880.8561278485342</v>
+        <v>468.6038258031709</v>
       </c>
       <c r="V36" t="n">
-        <v>880.8561278485342</v>
+        <v>468.6038258031709</v>
       </c>
       <c r="W36" t="n">
-        <v>655.9499066541562</v>
+        <v>243.697604608793</v>
       </c>
       <c r="X36" t="n">
-        <v>655.9499066541562</v>
+        <v>243.697604608793</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.9499066541562</v>
+        <v>243.697604608793</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.9292121309305</v>
+        <v>55.37242594270248</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9292121309305</v>
+        <v>55.37242594270248</v>
       </c>
       <c r="D37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K37" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L37" t="n">
-        <v>195.0714213037278</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M37" t="n">
-        <v>396.209414507233</v>
+        <v>394.9981493597612</v>
       </c>
       <c r="N37" t="n">
-        <v>597.9994122197318</v>
+        <v>596.78814707226</v>
       </c>
       <c r="O37" t="n">
-        <v>768.3688402502947</v>
+        <v>767.157575102823</v>
       </c>
       <c r="P37" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822652</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R37" t="n">
-        <v>758.9414974385975</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S37" t="n">
-        <v>617.7416545196866</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="T37" t="n">
-        <v>617.7416545196866</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="U37" t="n">
-        <v>392.8354333253085</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="V37" t="n">
-        <v>392.8354333253085</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="W37" t="n">
-        <v>392.8354333253085</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="X37" t="n">
-        <v>167.9292121309305</v>
+        <v>457.8134699164723</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.9292121309305</v>
+        <v>237.0208907729422</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="C38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="D38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="E38" t="n">
-        <v>437.0502431622741</v>
+        <v>589.6292793927926</v>
       </c>
       <c r="F38" t="n">
-        <v>212.144021967896</v>
+        <v>364.7230581984145</v>
       </c>
       <c r="G38" t="n">
-        <v>212.144021967896</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="H38" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I38" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075562</v>
+        <v>34.05974234075603</v>
       </c>
       <c r="K38" t="n">
-        <v>109.1485562061083</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L38" t="n">
-        <v>239.2046314711337</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M38" t="n">
         <v>415.5865117704855</v>
       </c>
       <c r="N38" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734921</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974402</v>
       </c>
       <c r="P38" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237594</v>
       </c>
       <c r="Q38" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R38" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="S38" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="T38" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="U38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="V38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="W38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="X38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
       <c r="Y38" t="n">
-        <v>661.9564643566521</v>
+        <v>661.9564643566518</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="C39" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="D39" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E39" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F39" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G39" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H39" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I39" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J39" t="n">
-        <v>17.81257271859474</v>
+        <v>62.24029840864239</v>
       </c>
       <c r="K39" t="n">
-        <v>80.34372630892088</v>
+        <v>124.7714519989685</v>
       </c>
       <c r="L39" t="n">
-        <v>210.7471202899191</v>
+        <v>255.1748459799667</v>
       </c>
       <c r="M39" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973253</v>
       </c>
       <c r="N39" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510016</v>
       </c>
       <c r="O39" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763799</v>
       </c>
       <c r="P39" t="n">
-        <v>827.4770958375461</v>
+        <v>871.9048215275938</v>
       </c>
       <c r="Q39" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R39" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="S39" t="n">
-        <v>890.6286359297369</v>
+        <v>717.4625377712318</v>
       </c>
       <c r="T39" t="n">
-        <v>890.6286359297369</v>
+        <v>692.5312363017287</v>
       </c>
       <c r="U39" t="n">
-        <v>665.7224147353588</v>
+        <v>467.6250151073507</v>
       </c>
       <c r="V39" t="n">
-        <v>665.7224147353588</v>
+        <v>242.7187939129727</v>
       </c>
       <c r="W39" t="n">
-        <v>440.8161935409808</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="X39" t="n">
-        <v>232.964693335448</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="Y39" t="n">
-        <v>232.964693335448</v>
+        <v>17.81257271859473</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="C40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="D40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="E40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="F40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="G40" t="n">
-        <v>172.306313132196</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="H40" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I40" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J40" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K40" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="L40" t="n">
         <v>198.7269740270977</v>
@@ -7350,34 +7350,34 @@
         <v>772.0243929736647</v>
       </c>
       <c r="P40" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="Q40" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R40" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S40" t="n">
-        <v>790.752492861428</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="T40" t="n">
-        <v>790.752492861428</v>
+        <v>665.7224147353587</v>
       </c>
       <c r="U40" t="n">
-        <v>565.8462716670499</v>
+        <v>665.7224147353587</v>
       </c>
       <c r="V40" t="n">
-        <v>565.8462716670499</v>
+        <v>665.7224147353587</v>
       </c>
       <c r="W40" t="n">
-        <v>565.8462716670499</v>
+        <v>665.7224147353587</v>
       </c>
       <c r="X40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
       <c r="Y40" t="n">
-        <v>340.9400504726718</v>
+        <v>466.260450980366</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.3129731240954</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C41" t="n">
-        <v>289.3129731240954</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="D41" t="n">
-        <v>289.3129731240954</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E41" t="n">
-        <v>289.3129731240954</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="F41" t="n">
-        <v>64.40675192971733</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="G41" t="n">
         <v>17.81257271859474</v>
@@ -7411,52 +7411,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075562</v>
       </c>
       <c r="K41" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061083</v>
       </c>
       <c r="L41" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711337</v>
       </c>
       <c r="M41" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704855</v>
       </c>
       <c r="N41" t="n">
-        <v>599.4362436734924</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974406</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P41" t="n">
-        <v>861.9898061237598</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q41" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R41" t="n">
-        <v>886.8626855510302</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S41" t="n">
-        <v>729.2814952728233</v>
+        <v>733.0474456515301</v>
       </c>
       <c r="T41" t="n">
-        <v>514.2191943184735</v>
+        <v>517.9851446971802</v>
       </c>
       <c r="U41" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V41" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="W41" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X41" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.3129731240954</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>491.5495085836258</v>
+        <v>476.2736346811217</v>
       </c>
       <c r="C42" t="n">
-        <v>491.5495085836258</v>
+        <v>301.8206053999947</v>
       </c>
       <c r="D42" t="n">
-        <v>342.6150989223746</v>
+        <v>301.8206053999947</v>
       </c>
       <c r="E42" t="n">
-        <v>265.5729054883529</v>
+        <v>301.8206053999947</v>
       </c>
       <c r="F42" t="n">
-        <v>119.0383475152379</v>
+        <v>155.2860474268797</v>
       </c>
       <c r="G42" t="n">
-        <v>119.0383475152379</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H42" t="n">
         <v>17.81257271859474</v>
@@ -7490,52 +7490,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J42" t="n">
-        <v>62.24029840864273</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K42" t="n">
-        <v>124.7714519989689</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L42" t="n">
-        <v>255.174845979967</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7063241973257</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510019</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O42" t="n">
-        <v>769.2186132763802</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P42" t="n">
-        <v>871.9048215275941</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q42" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R42" t="n">
-        <v>867.5251443686478</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S42" t="n">
-        <v>867.5251443686478</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T42" t="n">
-        <v>867.5251443686478</v>
+        <v>701.1798558754997</v>
       </c>
       <c r="U42" t="n">
-        <v>867.5251443686478</v>
+        <v>476.2736346811217</v>
       </c>
       <c r="V42" t="n">
-        <v>867.5251443686478</v>
+        <v>476.2736346811217</v>
       </c>
       <c r="W42" t="n">
-        <v>867.5251443686478</v>
+        <v>476.2736346811217</v>
       </c>
       <c r="X42" t="n">
-        <v>867.5251443686478</v>
+        <v>476.2736346811217</v>
       </c>
       <c r="Y42" t="n">
-        <v>659.7648456036939</v>
+        <v>476.2736346811217</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>484.0739499051192</v>
+        <v>326.126331425333</v>
       </c>
       <c r="C43" t="n">
-        <v>315.1377669772123</v>
+        <v>326.126331425333</v>
       </c>
       <c r="D43" t="n">
-        <v>165.0211275648766</v>
+        <v>176.0096920129973</v>
       </c>
       <c r="E43" t="n">
-        <v>17.81257271859474</v>
+        <v>176.0096920129973</v>
       </c>
       <c r="F43" t="n">
-        <v>17.81257271859474</v>
+        <v>176.0096920129973</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81257271859474</v>
+        <v>176.0096920129973</v>
       </c>
       <c r="H43" t="n">
-        <v>17.81257271859474</v>
+        <v>21.515951599396</v>
       </c>
       <c r="I43" t="n">
-        <v>17.81257271859474</v>
+        <v>21.515951599396</v>
       </c>
       <c r="J43" t="n">
         <v>17.81257271859474</v>
@@ -7587,34 +7587,34 @@
         <v>772.0243929736647</v>
       </c>
       <c r="P43" t="n">
-        <v>890.628635929737</v>
+        <v>889.4173707822654</v>
       </c>
       <c r="Q43" t="n">
-        <v>890.628635929737</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R43" t="n">
-        <v>890.628635929737</v>
+        <v>758.9414974385975</v>
       </c>
       <c r="S43" t="n">
-        <v>890.628635929737</v>
+        <v>551.0325526197111</v>
       </c>
       <c r="T43" t="n">
-        <v>890.628635929737</v>
+        <v>551.0325526197111</v>
       </c>
       <c r="U43" t="n">
-        <v>890.628635929737</v>
+        <v>326.126331425333</v>
       </c>
       <c r="V43" t="n">
-        <v>890.628635929737</v>
+        <v>326.126331425333</v>
       </c>
       <c r="W43" t="n">
-        <v>890.628635929737</v>
+        <v>326.126331425333</v>
       </c>
       <c r="X43" t="n">
-        <v>665.7224147353589</v>
+        <v>326.126331425333</v>
       </c>
       <c r="Y43" t="n">
-        <v>665.7224147353589</v>
+        <v>326.126331425333</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>242.7187939129728</v>
+        <v>58.32878206839612</v>
       </c>
       <c r="C44" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D44" t="n">
         <v>17.81257271859474</v>
@@ -7648,7 +7648,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J44" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K44" t="n">
         <v>109.1485562061088</v>
@@ -7657,13 +7657,13 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M44" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N44" t="n">
         <v>599.4362436734924</v>
       </c>
       <c r="O44" t="n">
-        <v>759.7050708974405</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P44" t="n">
         <v>861.9898061237598</v>
@@ -7672,28 +7672,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R44" t="n">
-        <v>886.8626855510302</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S44" t="n">
-        <v>886.8626855510302</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="T44" t="n">
-        <v>671.8003845966803</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="U44" t="n">
-        <v>467.6250151073508</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="V44" t="n">
-        <v>467.6250151073508</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="W44" t="n">
-        <v>242.7187939129728</v>
+        <v>508.1412244571522</v>
       </c>
       <c r="X44" t="n">
-        <v>242.7187939129728</v>
+        <v>283.2350032627742</v>
       </c>
       <c r="Y44" t="n">
-        <v>242.7187939129728</v>
+        <v>58.32878206839612</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K45" t="n">
-        <v>124.7714519989689</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L45" t="n">
         <v>255.174845979967</v>
@@ -7754,22 +7754,22 @@
         <v>890.628635929737</v>
       </c>
       <c r="S45" t="n">
-        <v>740.5660293323214</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T45" t="n">
-        <v>740.5660293323214</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U45" t="n">
-        <v>740.5660293323214</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="V45" t="n">
-        <v>658.3305928834595</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W45" t="n">
-        <v>433.4243716890815</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X45" t="n">
-        <v>225.5728714835487</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y45" t="n">
         <v>17.81257271859474</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>444.9298355918288</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="C46" t="n">
-        <v>275.9936526639219</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="D46" t="n">
-        <v>125.8770132515862</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="E46" t="n">
-        <v>125.8770132515862</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="F46" t="n">
-        <v>125.8770132515862</v>
+        <v>143.132973226289</v>
       </c>
       <c r="G46" t="n">
-        <v>125.8770132515862</v>
+        <v>143.132973226289</v>
       </c>
       <c r="H46" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I46" t="n">
         <v>17.81257271859474</v>
@@ -7809,22 +7809,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K46" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L46" t="n">
-        <v>198.7269740270977</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M46" t="n">
-        <v>399.8649672306029</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N46" t="n">
-        <v>601.6549649431017</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O46" t="n">
-        <v>772.0243929736647</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P46" t="n">
-        <v>889.4173707822655</v>
+        <v>890.628635929737</v>
       </c>
       <c r="Q46" t="n">
         <v>890.628635929737</v>
@@ -7833,25 +7833,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S46" t="n">
-        <v>890.628635929737</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="T46" t="n">
-        <v>890.628635929737</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="U46" t="n">
-        <v>890.628635929737</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="V46" t="n">
-        <v>890.628635929737</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="W46" t="n">
-        <v>890.628635929737</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="X46" t="n">
-        <v>665.7224147353589</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9298355918288</v>
+        <v>290.0229207241993</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>9.233478822513192</v>
+        <v>54.10996941852174</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44.87649059600824</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>7.768307062037152</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>158.7822240432016</v>
       </c>
       <c r="M13" t="n">
         <v>178.5096609094456</v>
@@ -8865,10 +8865,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>130.0905856667272</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>9.233478822513192</v>
+        <v>54.10996941852118</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.8764905960078</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,16 +9087,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>158.782224043201</v>
       </c>
       <c r="M16" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>69.14978006349308</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9105,7 +9105,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.11945822879032</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>54.10996941852164</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.87649059600793</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>157.5587238942398</v>
       </c>
       <c r="M19" t="n">
-        <v>75.84172412847765</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
         <v>171.8177168444618</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.11945822879032</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.87649059600794</v>
+        <v>44.87649059600863</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9576,10 +9576,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>131.3140858156876</v>
+        <v>130.0905856667272</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>33.15990499306173</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70.73153193686761</v>
+        <v>70.73153193686764</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>33.15990499306182</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>148.7679275259378</v>
       </c>
       <c r="L24" t="n">
-        <v>117.1744474099521</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>31.59348011598573</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>103.8914369299295</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.8914369299295</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K27" t="n">
-        <v>148.7679275259378</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>148.7679275259379</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>103.8914369299294</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>148.7679275259378</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.596322813173373</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>145.1716047127645</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775137</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>44.87649059600795</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>44.87649059600771</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,13 +10746,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>158.782224043201</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>74.61822397951551</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10764,7 +10764,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>9.23347882251322</v>
+        <v>54.10996941852095</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.87649059600794</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>131.3140858156876</v>
+        <v>131.3140858156874</v>
       </c>
       <c r="Q40" t="n">
         <v>64.11945822879035</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>54.1099694185213</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>44.8764905960079</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>131.3140858156877</v>
+        <v>130.0905856667265</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K45" t="n">
-        <v>44.87649059600808</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.87649059600807</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,10 +11472,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>130.0905856667266</v>
+        <v>32.33862653307244</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>142.6157327885732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>308.5548042016712</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>190.3190972947052</v>
       </c>
       <c r="H11" t="n">
-        <v>315.6487261371465</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I11" t="n">
         <v>120.7842216425874</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960347</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>340.109701237042</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0987399612021</v>
+        <v>35.10286672873919</v>
       </c>
       <c r="H12" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I12" t="n">
-        <v>46.53917216822465</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547832</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S12" t="n">
         <v>148.5619805314415</v>
@@ -23393,16 +23393,16 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
-        <v>3.20232986156617</v>
+        <v>3.202329861566199</v>
       </c>
       <c r="V12" t="n">
-        <v>10.14342816699087</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>29.03782417848521</v>
+        <v>29.03782417848524</v>
       </c>
       <c r="X12" t="n">
-        <v>9.656559571749312</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23439,7 +23439,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J13" t="n">
-        <v>19.57811714556237</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.82950031900873</v>
+        <v>0.8295003190087868</v>
       </c>
       <c r="U13" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V13" t="n">
-        <v>169.564181186591</v>
+        <v>169.5641811865911</v>
       </c>
       <c r="W13" t="n">
-        <v>63.86583935415661</v>
+        <v>63.86583935415663</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810463</v>
       </c>
       <c r="C14" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>345.5476136908782</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>184.2188867592772</v>
+        <v>210.7596201099835</v>
       </c>
       <c r="G14" t="n">
-        <v>190.3190972947053</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H14" t="n">
-        <v>315.6487261371465</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I14" t="n">
         <v>120.7842216425874</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T14" t="n">
         <v>212.9116779448064</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736194</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>123.0905840419383</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S15" t="n">
         <v>148.5619805314415</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>155.1571530894399</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,7 +23676,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J16" t="n">
-        <v>19.57811714556237</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
-        <v>140.0836968451975</v>
+        <v>9.713429738969467</v>
       </c>
       <c r="T16" t="n">
-        <v>223.4866593014431</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U16" t="n">
-        <v>63.60494786179908</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W16" t="n">
-        <v>63.86583935415672</v>
+        <v>63.86583935415678</v>
       </c>
       <c r="X16" t="n">
-        <v>3.05249640660287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190.3457069066721</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885733</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>190.3190972947052</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H17" t="n">
-        <v>315.6487261371465</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I17" t="n">
         <v>120.7842216425874</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>176.5289215634228</v>
       </c>
       <c r="U17" t="n">
-        <v>28.50237542636242</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.5807796736191</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23831,7 +23831,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I18" t="n">
-        <v>23.13124552481223</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.87245664547832</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S18" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.202329861566113</v>
+        <v>3.202329861566341</v>
       </c>
       <c r="V18" t="n">
-        <v>10.14342816699082</v>
+        <v>10.14342816699104</v>
       </c>
       <c r="W18" t="n">
-        <v>29.03782417848515</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>187.8294994094855</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S19" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>223.4866593014431</v>
+        <v>117.0815226772833</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.8200191407926</v>
+        <v>63.86583935415678</v>
       </c>
       <c r="X19" t="n">
-        <v>3.0524964066027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810462</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>304.8265133267515</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>190.3190972947054</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H20" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I20" t="n">
-        <v>84.40146526120381</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1595344087969</v>
       </c>
       <c r="V20" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960346</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>56.37860547328715</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V21" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>29.03782417848538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>90.69812926746988</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.02882602240928</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H22" t="n">
         <v>152.9488030094653</v>
       </c>
       <c r="I22" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>19.57811714556239</v>
@@ -24177,19 +24177,19 @@
         <v>130.370267106228</v>
       </c>
       <c r="S22" t="n">
-        <v>205.8298553706975</v>
+        <v>59.73894027736463</v>
       </c>
       <c r="T22" t="n">
-        <v>0.829500319008929</v>
+        <v>0.8295003190087584</v>
       </c>
       <c r="U22" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415661</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133.8387942727222</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>105.7879942299246</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>157.9809983509531</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863813</v>
       </c>
       <c r="H23" t="n">
         <v>100.1502592702865</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>120.8360532877107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>148.5619805314415</v>
@@ -24341,19 +24341,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>63.93150094882571</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>16.82783748730961</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>35.32513844301516</v>
       </c>
       <c r="D25" t="n">
-        <v>125.2974815646398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I25" t="n">
         <v>124.0671965026173</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.4866593014432</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.0195964392079</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>116.3778443802492</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>105.7879942299246</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>164.0812088863813</v>
+        <v>406.6611764801661</v>
       </c>
       <c r="H26" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S26" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1595344087969</v>
       </c>
       <c r="V26" t="n">
-        <v>78.85721107937655</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>120.8360532877107</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>29.79109116379091</v>
+        <v>105.0612891290076</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,7 +24542,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S27" t="n">
         <v>148.5619805314415</v>
@@ -24578,10 +24578,10 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>2.799935770161255</v>
@@ -24654,10 +24654,10 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T28" t="n">
-        <v>223.4866593014432</v>
+        <v>4.259901559663263</v>
       </c>
       <c r="U28" t="n">
-        <v>43.84995710073227</v>
+        <v>37.36705945347501</v>
       </c>
       <c r="V28" t="n">
         <v>3.242595933069651</v>
@@ -24666,7 +24666,7 @@
         <v>37.62795094583265</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>105.7879942299246</v>
       </c>
       <c r="E29" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>164.0812088863813</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H29" t="n">
         <v>315.6487261371466</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>191.6664459173614</v>
+        <v>2.264487018038523</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>321.4371786731614</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>120.8360532877107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="30">
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>142.9971643074007</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>105.0612891290076</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S30" t="n">
         <v>148.5619805314415</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>124.0671965026173</v>
@@ -24888,7 +24888,7 @@
         <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
-        <v>205.8298553706975</v>
+        <v>183.9404473562482</v>
       </c>
       <c r="T31" t="n">
         <v>223.4866593014432</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.5106457724237</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133.8387942727222</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>352.0962526986293</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>157.9809983509531</v>
       </c>
       <c r="G32" t="n">
         <v>164.0812088863813</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>346.6541797953593</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>22.81117582471511</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>210.2607380286787</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>124.0671965026173</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.98568059020043</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4866593014432</v>
+        <v>121.4154454194645</v>
       </c>
       <c r="U34" t="n">
         <v>286.2621068442334</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>308.5548042016715</v>
+        <v>132.0258826382488</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>412.9762562771396</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1595344087969</v>
+        <v>28.5023754263627</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>135.3641237133268</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736194</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2135170486767</v>
+        <v>12.68607543858251</v>
       </c>
       <c r="I36" t="n">
         <v>46.53917216822466</v>
@@ -25286,16 +25286,16 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>216.1847058436099</v>
+        <v>3.202329861566398</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>29.03782417848538</v>
+        <v>29.03782417848544</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>111.4312183263457</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>66.04201088097571</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.4866593014432</v>
       </c>
       <c r="U37" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>3.052496406602927</v>
+        <v>3.052496406602984</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2732110898276</v>
+        <v>310.3264569580411</v>
       </c>
       <c r="F38" t="n">
-        <v>184.2188867592772</v>
+        <v>184.2188867592773</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H38" t="n">
-        <v>123.2605913803383</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I38" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U38" t="n">
-        <v>28.50237542636265</v>
+        <v>28.5023754263627</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.63132420038471</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H39" t="n">
         <v>100.2135170486767</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.1474030428659</v>
+        <v>170.4654145880578</v>
       </c>
       <c r="U39" t="n">
-        <v>3.202329861566341</v>
+        <v>3.202329861566398</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.1434281669911</v>
       </c>
       <c r="W39" t="n">
-        <v>29.03782417848538</v>
+        <v>29.03782417848544</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>19.57811714556239</v>
@@ -25599,13 +25599,13 @@
         <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
-        <v>106.9524737330717</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T40" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190089858</v>
       </c>
       <c r="U40" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>3.052496406602927</v>
+        <v>28.24231127159442</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,7 +25642,7 @@
         <v>184.2188867592772</v>
       </c>
       <c r="G41" t="n">
-        <v>366.8480188581282</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H41" t="n">
         <v>315.6487261371466</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1595344087969</v>
+        <v>201.3030061148658</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5807796736193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>81.37330895571949</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I42" t="n">
         <v>46.53917216822466</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S42" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>7.593110789171106</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566341</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6974933487501289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,13 +25803,13 @@
         <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>124.0671965026173</v>
       </c>
       <c r="J43" t="n">
-        <v>19.57811714556239</v>
+        <v>15.91177205356913</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.4866593014432</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>3.052496406602899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>325.1618445147042</v>
       </c>
       <c r="D44" t="n">
-        <v>132.0258826382487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S44" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>49.02591861436073</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>126.5838097349788</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="45">
@@ -25994,25 +25994,25 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T45" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566312</v>
       </c>
       <c r="V45" t="n">
-        <v>151.387505065052</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W45" t="n">
         <v>29.03782417848535</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>9.656559571749483</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H46" t="n">
-        <v>45.96500688180375</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I46" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>19.57811714556239</v>
@@ -26073,13 +26073,13 @@
         <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2621068442334</v>
+        <v>120.1494631438829</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>3.052496406602899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>416258.3770223233</v>
+        <v>416258.3770223231</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>416258.3770223231</v>
+        <v>416258.3770223233</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>438693.6632200787</v>
+        <v>438693.6632200786</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>416258.3770223232</v>
+        <v>416258.377022323</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>416258.3770223232</v>
+        <v>416258.3770223231</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416258.3770223232</v>
+        <v>416258.3770223231</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573493.437101927</v>
+      </c>
+      <c r="C2" t="n">
         <v>573493.4371019269</v>
-      </c>
-      <c r="C2" t="n">
-        <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
         <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
-        <v>267968.8533859963</v>
+        <v>267968.8533859961</v>
       </c>
       <c r="F2" t="n">
         <v>267968.8533859961</v>
       </c>
       <c r="G2" t="n">
+        <v>267968.853385996</v>
+      </c>
+      <c r="H2" t="n">
         <v>267968.8533859962</v>
-      </c>
-      <c r="H2" t="n">
-        <v>267968.8533859961</v>
       </c>
       <c r="I2" t="n">
         <v>278375.2659136357</v>
@@ -26340,19 +26340,19 @@
         <v>278375.2659136357</v>
       </c>
       <c r="K2" t="n">
-        <v>278375.2659136356</v>
+        <v>278375.2659136358</v>
       </c>
       <c r="L2" t="n">
-        <v>278375.2659136356</v>
+        <v>278375.2659136357</v>
       </c>
       <c r="M2" t="n">
-        <v>267968.8533859962</v>
+        <v>267968.8533859961</v>
       </c>
       <c r="N2" t="n">
-        <v>267968.8533859962</v>
+        <v>267968.8533859961</v>
       </c>
       <c r="O2" t="n">
-        <v>267968.8533859962</v>
+        <v>267968.8533859961</v>
       </c>
       <c r="P2" t="n">
         <v>267968.8533859961</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531419.6532194046</v>
+        <v>531419.6532194045</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6977.20552342996</v>
+        <v>6977.205523429914</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415055</v>
+        <v>48948.46790415056</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>14498.17443609987</v>
+        <v>14498.17443609988</v>
       </c>
       <c r="F4" t="n">
         <v>14498.17443609986</v>
       </c>
       <c r="G4" t="n">
+        <v>14498.17443609986</v>
+      </c>
+      <c r="H4" t="n">
         <v>14498.17443609988</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14498.17443609986</v>
       </c>
       <c r="I4" t="n">
         <v>21346.59406708389</v>
@@ -26450,10 +26450,10 @@
         <v>21346.59406708389</v>
       </c>
       <c r="M4" t="n">
-        <v>14498.17443609986</v>
+        <v>14498.17443609985</v>
       </c>
       <c r="N4" t="n">
-        <v>14498.17443609986</v>
+        <v>14498.17443609985</v>
       </c>
       <c r="O4" t="n">
         <v>14498.17443609986</v>
@@ -26481,13 +26481,13 @@
         <v>26153.48139947168</v>
       </c>
       <c r="F5" t="n">
+        <v>26153.48139947167</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26153.48139947167</v>
+      </c>
+      <c r="H5" t="n">
         <v>26153.48139947168</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26153.48139947169</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26153.48139947167</v>
       </c>
       <c r="I5" t="n">
         <v>27748.74501469778</v>
@@ -26502,10 +26502,10 @@
         <v>27748.74501469778</v>
       </c>
       <c r="M5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947166</v>
       </c>
       <c r="N5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947166</v>
       </c>
       <c r="O5" t="n">
         <v>26153.48139947167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98172.4513274253</v>
+        <v>98212.17352823843</v>
       </c>
       <c r="C6" t="n">
-        <v>98172.45132742512</v>
+        <v>98212.17352823826</v>
       </c>
       <c r="D6" t="n">
-        <v>98172.4513274253</v>
+        <v>98212.17352823832</v>
       </c>
       <c r="E6" t="n">
-        <v>-315058.18372323</v>
+        <v>-305198.028474405</v>
       </c>
       <c r="F6" t="n">
-        <v>216361.4694961745</v>
+        <v>226221.6247449997</v>
       </c>
       <c r="G6" t="n">
-        <v>216361.4694961745</v>
+        <v>226221.6247449995</v>
       </c>
       <c r="H6" t="n">
-        <v>216361.4694961745</v>
+        <v>226221.6247449996</v>
       </c>
       <c r="I6" t="n">
-        <v>211718.6508444468</v>
+        <v>221244.3142620264</v>
       </c>
       <c r="J6" t="n">
-        <v>218695.8563678768</v>
+        <v>228221.5197854563</v>
       </c>
       <c r="K6" t="n">
-        <v>218695.8563678766</v>
+        <v>228221.5197854564</v>
       </c>
       <c r="L6" t="n">
-        <v>218695.8563678767</v>
+        <v>228221.5197854563</v>
       </c>
       <c r="M6" t="n">
-        <v>167413.0015920241</v>
+        <v>177273.1568408491</v>
       </c>
       <c r="N6" t="n">
-        <v>216361.4694961746</v>
+        <v>226221.6247449996</v>
       </c>
       <c r="O6" t="n">
-        <v>216361.4694961746</v>
+        <v>226221.6247449996</v>
       </c>
       <c r="P6" t="n">
-        <v>216361.4694961745</v>
+        <v>226221.6247449996</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513611</v>
+        <v>578.7122079513609</v>
       </c>
       <c r="F3" t="n">
-        <v>578.7122079513611</v>
+        <v>578.7122079513609</v>
       </c>
       <c r="G3" t="n">
-        <v>578.7122079513611</v>
+        <v>578.7122079513609</v>
       </c>
       <c r="H3" t="n">
         <v>578.7122079513609</v>
@@ -26801,13 +26801,13 @@
         <v>222.6571589824344</v>
       </c>
       <c r="F4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="G4" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I4" t="n">
         <v>248.8950473907584</v>
@@ -26828,7 +26828,7 @@
         <v>222.6571589824342</v>
       </c>
       <c r="O4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="P4" t="n">
         <v>222.6571589824343</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513611</v>
+        <v>578.7122079513609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.23788840832412</v>
+        <v>26.23788840832395</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32648123799542</v>
+        <v>2.326481237995419</v>
       </c>
       <c r="H11" t="n">
-        <v>23.8260759786206</v>
+        <v>23.82607597862059</v>
       </c>
       <c r="I11" t="n">
-        <v>89.6916679278185</v>
+        <v>89.69166792781849</v>
       </c>
       <c r="J11" t="n">
         <v>197.4571869733139</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9371377776601</v>
+        <v>295.93713777766</v>
       </c>
       <c r="L11" t="n">
-        <v>367.1361879649625</v>
+        <v>367.1361879649624</v>
       </c>
       <c r="M11" t="n">
-        <v>408.5097486811635</v>
+        <v>408.5097486811634</v>
       </c>
       <c r="N11" t="n">
         <v>415.119863498618</v>
       </c>
       <c r="O11" t="n">
-        <v>391.9859156883011</v>
+        <v>391.985915688301</v>
       </c>
       <c r="P11" t="n">
-        <v>334.5509101252891</v>
+        <v>334.550910125289</v>
       </c>
       <c r="Q11" t="n">
         <v>251.233800789578</v>
@@ -31788,7 +31788,7 @@
         <v>146.1408270662299</v>
       </c>
       <c r="S11" t="n">
-        <v>53.01469121082068</v>
+        <v>53.01469121082066</v>
       </c>
       <c r="T11" t="n">
         <v>10.18417161932495</v>
@@ -31834,7 +31834,7 @@
         <v>1.244777202008588</v>
       </c>
       <c r="H12" t="n">
-        <v>12.02192718781979</v>
+        <v>12.02192718781978</v>
       </c>
       <c r="I12" t="n">
         <v>42.85746068319042</v>
@@ -31843,37 +31843,37 @@
         <v>117.6041478441535</v>
       </c>
       <c r="K12" t="n">
-        <v>201.0042203787289</v>
+        <v>201.0042203787288</v>
       </c>
       <c r="L12" t="n">
-        <v>270.2749797606805</v>
+        <v>270.2749797606804</v>
       </c>
       <c r="M12" t="n">
         <v>315.3981533334917</v>
       </c>
       <c r="N12" t="n">
-        <v>323.7458039557336</v>
+        <v>323.7458039557335</v>
       </c>
       <c r="O12" t="n">
         <v>296.1641617428064</v>
       </c>
       <c r="P12" t="n">
-        <v>237.6978500923242</v>
+        <v>237.6978500923241</v>
       </c>
       <c r="Q12" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R12" t="n">
-        <v>77.28537750716481</v>
+        <v>77.2853775071648</v>
       </c>
       <c r="S12" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T12" t="n">
-        <v>5.017325651955666</v>
+        <v>5.017325651955665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08189323697424924</v>
+        <v>0.08189323697424923</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H13" t="n">
-        <v>9.278369497974285</v>
+        <v>9.278369497974284</v>
       </c>
       <c r="I13" t="n">
-        <v>31.38327842464103</v>
+        <v>31.38327842464102</v>
       </c>
       <c r="J13" t="n">
-        <v>73.7810629711104</v>
+        <v>73.78106297111039</v>
       </c>
       <c r="K13" t="n">
         <v>121.2449511084982</v>
       </c>
       <c r="L13" t="n">
-        <v>155.1517942432223</v>
+        <v>155.1517942432222</v>
       </c>
       <c r="M13" t="n">
         <v>163.5858131427101</v>
@@ -31937,22 +31937,22 @@
         <v>147.5052034299633</v>
       </c>
       <c r="P13" t="n">
-        <v>126.2161838456542</v>
+        <v>126.2161838456541</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.38554340065552</v>
+        <v>87.38554340065549</v>
       </c>
       <c r="R13" t="n">
-        <v>46.92312427094149</v>
+        <v>46.92312427094148</v>
       </c>
       <c r="S13" t="n">
         <v>18.18674266627473</v>
       </c>
       <c r="T13" t="n">
-        <v>4.458930126838354</v>
+        <v>4.458930126838353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05692251225751098</v>
+        <v>0.05692251225751097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32648123799542</v>
+        <v>2.326481237995419</v>
       </c>
       <c r="H14" t="n">
-        <v>23.8260759786206</v>
+        <v>23.82607597862059</v>
       </c>
       <c r="I14" t="n">
-        <v>89.6916679278185</v>
+        <v>89.69166792781849</v>
       </c>
       <c r="J14" t="n">
         <v>197.4571869733139</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9371377776601</v>
+        <v>295.93713777766</v>
       </c>
       <c r="L14" t="n">
-        <v>367.1361879649625</v>
+        <v>367.1361879649624</v>
       </c>
       <c r="M14" t="n">
-        <v>408.5097486811635</v>
+        <v>408.5097486811634</v>
       </c>
       <c r="N14" t="n">
         <v>415.119863498618</v>
       </c>
       <c r="O14" t="n">
-        <v>391.9859156883011</v>
+        <v>391.985915688301</v>
       </c>
       <c r="P14" t="n">
-        <v>334.5509101252891</v>
+        <v>334.550910125289</v>
       </c>
       <c r="Q14" t="n">
         <v>251.233800789578</v>
@@ -32025,7 +32025,7 @@
         <v>146.1408270662299</v>
       </c>
       <c r="S14" t="n">
-        <v>53.01469121082068</v>
+        <v>53.01469121082066</v>
       </c>
       <c r="T14" t="n">
         <v>10.18417161932495</v>
@@ -32071,7 +32071,7 @@
         <v>1.244777202008588</v>
       </c>
       <c r="H15" t="n">
-        <v>12.02192718781979</v>
+        <v>12.02192718781978</v>
       </c>
       <c r="I15" t="n">
         <v>42.85746068319042</v>
@@ -32080,37 +32080,37 @@
         <v>117.6041478441535</v>
       </c>
       <c r="K15" t="n">
-        <v>201.0042203787289</v>
+        <v>201.0042203787288</v>
       </c>
       <c r="L15" t="n">
-        <v>270.2749797606805</v>
+        <v>270.2749797606804</v>
       </c>
       <c r="M15" t="n">
         <v>315.3981533334917</v>
       </c>
       <c r="N15" t="n">
-        <v>323.7458039557336</v>
+        <v>323.7458039557335</v>
       </c>
       <c r="O15" t="n">
         <v>296.1641617428064</v>
       </c>
       <c r="P15" t="n">
-        <v>237.6978500923242</v>
+        <v>237.6978500923241</v>
       </c>
       <c r="Q15" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R15" t="n">
-        <v>77.28537750716481</v>
+        <v>77.2853775071648</v>
       </c>
       <c r="S15" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T15" t="n">
-        <v>5.017325651955666</v>
+        <v>5.017325651955665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08189323697424924</v>
+        <v>0.08189323697424923</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H16" t="n">
-        <v>9.278369497974285</v>
+        <v>9.278369497974284</v>
       </c>
       <c r="I16" t="n">
-        <v>31.38327842464103</v>
+        <v>31.38327842464102</v>
       </c>
       <c r="J16" t="n">
-        <v>73.7810629711104</v>
+        <v>73.78106297111039</v>
       </c>
       <c r="K16" t="n">
         <v>121.2449511084982</v>
       </c>
       <c r="L16" t="n">
-        <v>155.1517942432223</v>
+        <v>155.1517942432222</v>
       </c>
       <c r="M16" t="n">
         <v>163.5858131427101</v>
@@ -32174,22 +32174,22 @@
         <v>147.5052034299633</v>
       </c>
       <c r="P16" t="n">
-        <v>126.2161838456542</v>
+        <v>126.2161838456541</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.38554340065552</v>
+        <v>87.38554340065549</v>
       </c>
       <c r="R16" t="n">
-        <v>46.92312427094149</v>
+        <v>46.92312427094148</v>
       </c>
       <c r="S16" t="n">
         <v>18.18674266627473</v>
       </c>
       <c r="T16" t="n">
-        <v>4.458930126838354</v>
+        <v>4.458930126838353</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05692251225751098</v>
+        <v>0.05692251225751097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32648123799542</v>
+        <v>2.326481237995419</v>
       </c>
       <c r="H17" t="n">
-        <v>23.8260759786206</v>
+        <v>23.82607597862059</v>
       </c>
       <c r="I17" t="n">
-        <v>89.6916679278185</v>
+        <v>89.69166792781849</v>
       </c>
       <c r="J17" t="n">
         <v>197.4571869733139</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9371377776601</v>
+        <v>295.93713777766</v>
       </c>
       <c r="L17" t="n">
-        <v>367.1361879649625</v>
+        <v>367.1361879649624</v>
       </c>
       <c r="M17" t="n">
-        <v>408.5097486811635</v>
+        <v>408.5097486811634</v>
       </c>
       <c r="N17" t="n">
         <v>415.119863498618</v>
       </c>
       <c r="O17" t="n">
-        <v>391.9859156883011</v>
+        <v>391.985915688301</v>
       </c>
       <c r="P17" t="n">
-        <v>334.5509101252891</v>
+        <v>334.550910125289</v>
       </c>
       <c r="Q17" t="n">
         <v>251.233800789578</v>
@@ -32262,7 +32262,7 @@
         <v>146.1408270662299</v>
       </c>
       <c r="S17" t="n">
-        <v>53.01469121082068</v>
+        <v>53.01469121082066</v>
       </c>
       <c r="T17" t="n">
         <v>10.18417161932495</v>
@@ -32308,7 +32308,7 @@
         <v>1.244777202008588</v>
       </c>
       <c r="H18" t="n">
-        <v>12.02192718781979</v>
+        <v>12.02192718781978</v>
       </c>
       <c r="I18" t="n">
         <v>42.85746068319042</v>
@@ -32317,37 +32317,37 @@
         <v>117.6041478441535</v>
       </c>
       <c r="K18" t="n">
-        <v>201.0042203787289</v>
+        <v>201.0042203787288</v>
       </c>
       <c r="L18" t="n">
-        <v>270.2749797606805</v>
+        <v>270.2749797606804</v>
       </c>
       <c r="M18" t="n">
         <v>315.3981533334917</v>
       </c>
       <c r="N18" t="n">
-        <v>323.7458039557336</v>
+        <v>323.7458039557335</v>
       </c>
       <c r="O18" t="n">
         <v>296.1641617428064</v>
       </c>
       <c r="P18" t="n">
-        <v>237.6978500923242</v>
+        <v>237.6978500923241</v>
       </c>
       <c r="Q18" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R18" t="n">
-        <v>77.28537750716481</v>
+        <v>77.2853775071648</v>
       </c>
       <c r="S18" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T18" t="n">
-        <v>5.017325651955666</v>
+        <v>5.017325651955665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08189323697424924</v>
+        <v>0.08189323697424923</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H19" t="n">
-        <v>9.278369497974285</v>
+        <v>9.278369497974284</v>
       </c>
       <c r="I19" t="n">
-        <v>31.38327842464103</v>
+        <v>31.38327842464102</v>
       </c>
       <c r="J19" t="n">
-        <v>73.7810629711104</v>
+        <v>73.78106297111039</v>
       </c>
       <c r="K19" t="n">
         <v>121.2449511084982</v>
       </c>
       <c r="L19" t="n">
-        <v>155.1517942432223</v>
+        <v>155.1517942432222</v>
       </c>
       <c r="M19" t="n">
         <v>163.5858131427101</v>
@@ -32411,22 +32411,22 @@
         <v>147.5052034299633</v>
       </c>
       <c r="P19" t="n">
-        <v>126.2161838456542</v>
+        <v>126.2161838456541</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.38554340065552</v>
+        <v>87.38554340065549</v>
       </c>
       <c r="R19" t="n">
-        <v>46.92312427094149</v>
+        <v>46.92312427094148</v>
       </c>
       <c r="S19" t="n">
         <v>18.18674266627473</v>
       </c>
       <c r="T19" t="n">
-        <v>4.458930126838354</v>
+        <v>4.458930126838353</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05692251225751098</v>
+        <v>0.05692251225751097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>89.69166792781849</v>
       </c>
       <c r="J41" t="n">
-        <v>197.4571869733139</v>
+        <v>197.4571869733134</v>
       </c>
       <c r="K41" t="n">
         <v>295.93713777766</v>
@@ -34380,7 +34380,7 @@
         <v>408.5097486811634</v>
       </c>
       <c r="N44" t="n">
-        <v>415.1198634986176</v>
+        <v>415.119863498618</v>
       </c>
       <c r="O44" t="n">
         <v>391.985915688301</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K11" t="n">
-        <v>75.84728673267955</v>
+        <v>75.84728673267949</v>
       </c>
       <c r="L11" t="n">
         <v>131.3697729949752</v>
       </c>
       <c r="M11" t="n">
-        <v>178.1635154538908</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N11" t="n">
         <v>185.7067999020271</v>
       </c>
       <c r="O11" t="n">
-        <v>161.8877042666143</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P11" t="n">
         <v>103.3179143700195</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.92811091512854</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>44.87649059600852</v>
       </c>
       <c r="K12" t="n">
-        <v>63.16278140436989</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L12" t="n">
-        <v>131.7205999808063</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M12" t="n">
-        <v>218.1406100074817</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N12" t="n">
-        <v>192.4040918724003</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O12" t="n">
-        <v>153.567917298362</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P12" t="n">
         <v>103.7234426779939</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.91294384054842</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051855</v>
       </c>
       <c r="M13" t="n">
         <v>203.1696901045507</v>
@@ -35585,10 +35585,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
-        <v>118.5787654632337</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K14" t="n">
-        <v>75.84728673267955</v>
+        <v>75.84728673267949</v>
       </c>
       <c r="L14" t="n">
         <v>131.3697729949752</v>
       </c>
       <c r="M14" t="n">
-        <v>178.1635154538908</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N14" t="n">
         <v>185.7067999020271</v>
       </c>
       <c r="O14" t="n">
-        <v>161.8877042666143</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P14" t="n">
         <v>103.3179143700195</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.92811091512854</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.87649059600796</v>
       </c>
       <c r="K15" t="n">
-        <v>63.16278140436989</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L15" t="n">
-        <v>131.7205999808063</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M15" t="n">
         <v>173.2641194114734</v>
       </c>
       <c r="N15" t="n">
-        <v>192.4040918724003</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O15" t="n">
-        <v>153.567917298362</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P15" t="n">
         <v>103.7234426779939</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.78943443655622</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051849</v>
       </c>
       <c r="M16" t="n">
         <v>203.1696901045507</v>
       </c>
       <c r="N16" t="n">
-        <v>101.1603437367069</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O16" t="n">
         <v>172.090331344003</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K17" t="n">
-        <v>75.84728673267955</v>
+        <v>75.84728673267949</v>
       </c>
       <c r="L17" t="n">
         <v>131.3697729949752</v>
       </c>
       <c r="M17" t="n">
-        <v>178.1635154538908</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N17" t="n">
         <v>185.7067999020271</v>
       </c>
       <c r="O17" t="n">
-        <v>161.8877042666143</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P17" t="n">
         <v>103.3179143700195</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.92811091512854</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>44.87649059600845</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.16278140436989</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L18" t="n">
-        <v>131.7205999808063</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M18" t="n">
         <v>173.2641194114734</v>
       </c>
       <c r="N18" t="n">
-        <v>192.4040918724003</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O18" t="n">
-        <v>153.567917298362</v>
+        <v>198.4444078943698</v>
       </c>
       <c r="P18" t="n">
         <v>103.7234426779939</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.91294384054842</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>182.7418195035384</v>
+        <v>177.8258418562238</v>
       </c>
       <c r="M19" t="n">
-        <v>100.5017533235827</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N19" t="n">
         <v>203.8282805176756</v>
@@ -36062,7 +36062,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.78943443655633</v>
+        <v>63.78943443655702</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36296,10 +36296,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P22" t="n">
-        <v>119.8022656121941</v>
+        <v>118.5787654632337</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>49.57118743968934</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K23" t="n">
         <v>75.84728673267949</v>
@@ -36372,7 +36372,7 @@
         <v>185.7067999020271</v>
       </c>
       <c r="O23" t="n">
-        <v>161.8877042666142</v>
+        <v>195.0476092596761</v>
       </c>
       <c r="P23" t="n">
         <v>103.3179143700195</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>63.16278140436984</v>
+        <v>211.9307089303076</v>
       </c>
       <c r="L24" t="n">
-        <v>248.8950473907584</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M24" t="n">
-        <v>204.8575995274591</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N24" t="n">
         <v>192.4040918724002</v>
@@ -36612,10 +36612,10 @@
         <v>161.8877042666142</v>
       </c>
       <c r="P26" t="n">
-        <v>103.3179143700195</v>
+        <v>207.209351299949</v>
       </c>
       <c r="Q26" t="n">
-        <v>132.819547845058</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>211.9307089303076</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L27" t="n">
         <v>131.7205999808062</v>
@@ -36694,7 +36694,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.91294384054839</v>
+        <v>167.6808713664863</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>98.97545928261535</v>
+        <v>98.97545928261528</v>
       </c>
       <c r="L28" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M28" t="n">
-        <v>203.1696901045506</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N28" t="n">
         <v>203.8282805176756</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>120.302719376557</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K32" t="n">
-        <v>75.84728673267949</v>
+        <v>179.7387236626088</v>
       </c>
       <c r="L32" t="n">
         <v>131.3697729949752</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>63.16278140436984</v>
+        <v>211.9307089303076</v>
       </c>
       <c r="L33" t="n">
         <v>131.7205999808062</v>
@@ -37159,13 +37159,13 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N33" t="n">
-        <v>196.0004146855736</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O33" t="n">
         <v>153.5679172983619</v>
       </c>
       <c r="P33" t="n">
-        <v>248.8950473907584</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q33" t="n">
         <v>18.91294384054839</v>
@@ -37247,7 +37247,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.223500148961108</v>
+        <v>1.223500148961019</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662715</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267949</v>
@@ -37390,7 +37390,7 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L36" t="n">
-        <v>176.5970905768142</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M36" t="n">
         <v>173.2641194114734</v>
@@ -37405,7 +37405,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655611</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L37" t="n">
-        <v>179.0493420051849</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M37" t="n">
-        <v>203.1696901045507</v>
+        <v>99.27825317462052</v>
       </c>
       <c r="N37" t="n">
         <v>203.8282805176756</v>
@@ -37484,7 +37484,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16.41128244662715</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K38" t="n">
         <v>75.84728673267949</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>44.87649059600773</v>
       </c>
       <c r="K39" t="n">
         <v>63.16278140436984</v>
@@ -37642,7 +37642,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.78943443655633</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P40" t="n">
-        <v>119.8022656121941</v>
+        <v>119.8022656121939</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662715</v>
       </c>
       <c r="K41" t="n">
         <v>75.84728673267949</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>44.87649059600808</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>63.16278140436984</v>
@@ -37876,7 +37876,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P42" t="n">
-        <v>103.7234426779939</v>
+        <v>148.5999332740018</v>
       </c>
       <c r="Q42" t="n">
         <v>18.91294384054839</v>
@@ -37955,10 +37955,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>119.8022656121943</v>
+        <v>118.578765463233</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>178.1635154538907</v>
       </c>
       <c r="N44" t="n">
-        <v>185.7067999020267</v>
+        <v>185.7067999020271</v>
       </c>
       <c r="O44" t="n">
         <v>161.8877042666142</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>108.0392720003779</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L45" t="n">
-        <v>131.7205999808062</v>
+        <v>176.5970905768143</v>
       </c>
       <c r="M45" t="n">
         <v>173.2641194114734</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L46" t="n">
         <v>182.7418195035384</v>
@@ -38192,10 +38192,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>118.5787654632331</v>
+        <v>20.82680632957896</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
